--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/3_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/3_225-80R17.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
   <si>
     <t>Signal_Value_50</t>
   </si>
@@ -124,24 +124,6 @@
   </si>
   <si>
     <t>Signal_Value_84</t>
-  </si>
-  <si>
-    <t>Signal_Value_85</t>
-  </si>
-  <si>
-    <t>Signal_Value_86</t>
-  </si>
-  <si>
-    <t>Signal_Value_87</t>
-  </si>
-  <si>
-    <t>Signal_Value_88</t>
-  </si>
-  <si>
-    <t>Signal_Value_89</t>
-  </si>
-  <si>
-    <t>Signal_Value_90</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -565,15 +547,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP6"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -680,541 +662,451 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:36">
+      <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.0245084867605008</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.0846671103661276</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.1581954893591598</v>
+      </c>
+      <c r="I2">
+        <v>0.04151817798610259</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0.1581932947930672</v>
+      </c>
+      <c r="M2">
+        <v>0.1697213876736874</v>
+      </c>
+      <c r="N2">
+        <v>0.01529583778877356</v>
+      </c>
+      <c r="O2">
+        <v>0.0189218251136694</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.01677213913750165</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.02221572933357384</v>
+      </c>
+      <c r="T2">
+        <v>0.01330988876073728</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0.0341148526679904</v>
+      </c>
+      <c r="W2">
+        <v>0.03192787208686036</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0.04282237017904922</v>
+      </c>
+      <c r="AB2">
+        <v>0.02082502536146719</v>
+      </c>
+      <c r="AC2">
+        <v>0.07258766685109995</v>
+      </c>
+      <c r="AD2">
+        <v>0.07440284578063162</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.1547489615348349</v>
+      </c>
+      <c r="F3">
+        <v>0.1672638848231711</v>
+      </c>
+      <c r="G3">
+        <v>0.05524347222393163</v>
+      </c>
+      <c r="H3">
+        <v>0.07655937133225987</v>
+      </c>
+      <c r="I3">
+        <v>0.0274798187142874</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0.01744559290451198</v>
+      </c>
+      <c r="L3">
+        <v>0.127275766612068</v>
+      </c>
+      <c r="M3">
+        <v>0.06193319704997013</v>
+      </c>
+      <c r="N3">
+        <v>0.06044659953283547</v>
+      </c>
+      <c r="O3">
+        <v>0.01243955927108475</v>
+      </c>
+      <c r="P3">
+        <v>0.01959126991761249</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0.01645111087441554</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0.05411213137218247</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0.0220596404017122</v>
+      </c>
+      <c r="AB3">
+        <v>0.08278578509710725</v>
+      </c>
+      <c r="AC3">
+        <v>0.01166340692674224</v>
+      </c>
+      <c r="AD3">
+        <v>0.01093538755508713</v>
+      </c>
+      <c r="AE3">
+        <v>0.004671471062328071</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0.01689357279385736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
+      <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.1878381386931893</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.1319380174982818</v>
+      </c>
+      <c r="H4">
+        <v>0.03945640511006425</v>
+      </c>
+      <c r="I4">
+        <v>0.08016382925741049</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.08333899797325146</v>
+      </c>
+      <c r="M4">
+        <v>0.1219274149353025</v>
+      </c>
+      <c r="N4">
+        <v>0.05926054558790942</v>
+      </c>
+      <c r="O4">
+        <v>0.07974882741878013</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.0053765503774308</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0.003215076687178913</v>
+      </c>
+      <c r="U4">
+        <v>0.002136227851713396</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0.04270426569314987</v>
+      </c>
+      <c r="X4">
+        <v>0.0432578004422667</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0.0605154025241875</v>
+      </c>
+      <c r="AC4">
+        <v>0.03453110359991641</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0.01154039697964162</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0.01305099937032578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.1220151380554086</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.1903237328911057</v>
+      </c>
+      <c r="H5">
+        <v>0.03542332021230792</v>
+      </c>
+      <c r="I5">
+        <v>0.1098503078716529</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.03276668867145544</v>
+      </c>
+      <c r="M5">
+        <v>0.07123665758028659</v>
+      </c>
+      <c r="N5">
+        <v>0.04128156030121202</v>
+      </c>
+      <c r="O5">
+        <v>0.06060366816262987</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.006059030534230144</v>
+      </c>
+      <c r="R5">
+        <v>0.01300903353856437</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0.00806164420762202</v>
+      </c>
+      <c r="U5">
+        <v>0.0155621674948729</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0.03128020320691988</v>
+      </c>
+      <c r="X5">
+        <v>0.04367829115623285</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0.005031446923313494</v>
+      </c>
+      <c r="AB5">
+        <v>0.08236021069579937</v>
+      </c>
+      <c r="AC5">
+        <v>0.07957714061852551</v>
+      </c>
+      <c r="AD5">
+        <v>0.008441688508294532</v>
+      </c>
+      <c r="AE5">
+        <v>0.03490156546157562</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0.008536503907990246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:42">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0.2346625748501799</v>
-      </c>
-      <c r="F2">
-        <v>0.1264210761784495</v>
-      </c>
-      <c r="G2">
-        <v>0.09607160702571267</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0.08595528998674426</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0.01629068814176059</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0.1710011757931632</v>
-      </c>
-      <c r="N2">
-        <v>0.08548883109766733</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0.01265426682051769</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0.009217602139500335</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0.04690334904115898</v>
-      </c>
-      <c r="X2">
-        <v>0.01942902327226359</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0.002653277103833989</v>
-      </c>
-      <c r="AB2">
-        <v>0.05534985447304961</v>
-      </c>
-      <c r="AC2">
-        <v>0.006913168308681608</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0.02182828801391912</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0.009159927753397405</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42">
-      <c r="A3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.1316322361650767</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0.02298515785813123</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0.1338739943983665</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0.3834562300215725</v>
-      </c>
-      <c r="N3">
-        <v>0.0330192752515476</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0.0281821466780148</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0.0459774532334249</v>
-      </c>
-      <c r="U3">
-        <v>0.005408894799017891</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0.08828595352606651</v>
-      </c>
-      <c r="X3">
-        <v>0.009238362836941426</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0.007722212056817081</v>
-      </c>
-      <c r="AB3">
-        <v>0.01598353055524381</v>
-      </c>
-      <c r="AC3">
-        <v>0.03893674893146477</v>
-      </c>
-      <c r="AD3">
-        <v>0.04497364732235052</v>
-      </c>
-      <c r="AE3">
-        <v>0.01032415636596381</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42">
-      <c r="A4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.2045343962474359</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0.2188652019666291</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0.06803758377023465</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0.02685127600544411</v>
-      </c>
-      <c r="L4">
-        <v>0.0009440748374263544</v>
-      </c>
-      <c r="M4">
-        <v>0.1245794947825807</v>
-      </c>
-      <c r="N4">
-        <v>0.1295214016441979</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0.01390819774474565</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0.01548601444436697</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.03447105495492898</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0.02612414632483635</v>
-      </c>
-      <c r="X4">
-        <v>0.03900866486316441</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0.03696011048626974</v>
-      </c>
-      <c r="AC4">
-        <v>0.02794018513985809</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0.02789908783408759</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0.0004290571881312288</v>
-      </c>
-      <c r="AH4">
-        <v>0.00324314567299956</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0.001196906092662927</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42">
-      <c r="A5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0.02571505670461532</v>
-      </c>
-      <c r="L5">
-        <v>0.06505430549085517</v>
-      </c>
-      <c r="M5">
-        <v>0.1924030983206693</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0.02628326760606165</v>
-      </c>
-      <c r="P5">
-        <v>0.06312069281794967</v>
-      </c>
-      <c r="Q5">
-        <v>0.01760479787287122</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0.2316971734131721</v>
-      </c>
-      <c r="T5">
-        <v>0.2266191873844361</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0.01535944890139524</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0.04214356651829102</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0.04195320923785507</v>
-      </c>
-      <c r="AD5">
-        <v>0.04009906053629441</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0.004598718346873205</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0.007348416848660429</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42">
-      <c r="A6" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="B6">
         <v>0</v>
       </c>
@@ -1222,46 +1114,46 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.001389926877148997</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1123384871848931</v>
+        <v>0.1521389997418707</v>
       </c>
       <c r="F6">
-        <v>0.1336229365549446</v>
+        <v>0.006152534992316552</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.1555100700256749</v>
       </c>
       <c r="H6">
-        <v>0.08051489424424946</v>
+        <v>0.01306935562896169</v>
       </c>
       <c r="I6">
-        <v>0.04652812653554796</v>
+        <v>0.1358061233423497</v>
       </c>
       <c r="J6">
-        <v>0.0283703889379666</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.09462656677021229</v>
+        <v>0.07045334145629521</v>
       </c>
       <c r="M6">
-        <v>0.2538770589261408</v>
+        <v>0.1554081378240451</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.02977047705312899</v>
       </c>
       <c r="O6">
-        <v>0.004779940593982571</v>
+        <v>0.0629142894658862</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.04209398219921857</v>
+        <v>0.01501270796080384</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1270,40 +1162,40 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.03050206814491362</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.03523243639725358</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.05412478015362506</v>
+        <v>0.04207056290144646</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.0184111028280445</v>
       </c>
       <c r="Y6">
-        <v>0.007234559808905127</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.02225794151225735</v>
+        <v>0.006506414673760802</v>
       </c>
       <c r="AB6">
-        <v>0.002376901216991639</v>
+        <v>0.04305167894477266</v>
       </c>
       <c r="AC6">
-        <v>0.02685011169110217</v>
+        <v>0.04058065824962285</v>
       </c>
       <c r="AD6">
-        <v>0.0232788922506465</v>
+        <v>0.007821276440927951</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.03646674992612097</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1318,25 +1210,7 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
+        <v>0.008855518543970811</v>
       </c>
     </row>
   </sheetData>
@@ -1346,15 +1220,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP6"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1461,29 +1335,11 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:36">
+      <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="B2">
         <v>0</v>
       </c>
@@ -1491,126 +1347,108 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0245084867605008</v>
       </c>
       <c r="E2">
-        <v>0.2346625748501799</v>
+        <v>0.0245084867605008</v>
       </c>
       <c r="F2">
-        <v>0.3610836510286294</v>
+        <v>0.1091755971266284</v>
       </c>
       <c r="G2">
-        <v>0.457155258054342</v>
+        <v>0.1091755971266284</v>
       </c>
       <c r="H2">
-        <v>0.457155258054342</v>
+        <v>0.2673710864857882</v>
       </c>
       <c r="I2">
-        <v>0.5431105480410863</v>
+        <v>0.3088892644718907</v>
       </c>
       <c r="J2">
-        <v>0.5431105480410863</v>
+        <v>0.3088892644718907</v>
       </c>
       <c r="K2">
-        <v>0.5594012361828469</v>
+        <v>0.3088892644718907</v>
       </c>
       <c r="L2">
-        <v>0.5594012361828469</v>
+        <v>0.4670825592649579</v>
       </c>
       <c r="M2">
-        <v>0.73040241197601</v>
+        <v>0.6368039469386453</v>
       </c>
       <c r="N2">
-        <v>0.8158912430736773</v>
+        <v>0.6520997847274188</v>
       </c>
       <c r="O2">
-        <v>0.8158912430736773</v>
+        <v>0.6710216098410882</v>
       </c>
       <c r="P2">
-        <v>0.8158912430736773</v>
+        <v>0.6710216098410882</v>
       </c>
       <c r="Q2">
-        <v>0.8158912430736773</v>
+        <v>0.6877937489785898</v>
       </c>
       <c r="R2">
-        <v>0.8285455098941951</v>
+        <v>0.6877937489785898</v>
       </c>
       <c r="S2">
-        <v>0.8285455098941951</v>
+        <v>0.7100094783121637</v>
       </c>
       <c r="T2">
-        <v>0.8285455098941951</v>
+        <v>0.7233193670729009</v>
       </c>
       <c r="U2">
-        <v>0.8377631120336954</v>
+        <v>0.7233193670729009</v>
       </c>
       <c r="V2">
-        <v>0.8377631120336954</v>
+        <v>0.7574342197408913</v>
       </c>
       <c r="W2">
-        <v>0.8846664610748544</v>
+        <v>0.7893620918277516</v>
       </c>
       <c r="X2">
-        <v>0.904095484347118</v>
+        <v>0.7893620918277516</v>
       </c>
       <c r="Y2">
-        <v>0.904095484347118</v>
+        <v>0.7893620918277516</v>
       </c>
       <c r="Z2">
-        <v>0.904095484347118</v>
+        <v>0.7893620918277516</v>
       </c>
       <c r="AA2">
-        <v>0.906748761450952</v>
+        <v>0.8321844620068009</v>
       </c>
       <c r="AB2">
-        <v>0.9620986159240016</v>
+        <v>0.8530094873682681</v>
       </c>
       <c r="AC2">
-        <v>0.9690117842326832</v>
+        <v>0.9255971542193681</v>
       </c>
       <c r="AD2">
-        <v>0.9690117842326832</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AE2">
-        <v>0.9908400722466023</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AF2">
-        <v>0.9908400722466023</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AG2">
-        <v>0.9908400722466023</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AH2">
-        <v>0.9908400722466023</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AI2">
-        <v>0.9908400722466023</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ2">
         <v>0.9999999999999997</v>
       </c>
-      <c r="AK2">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AL2">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AM2">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AN2">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AO2">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AP2">
-        <v>0.9999999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42">
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1622,123 +1460,105 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1316322361650767</v>
+        <v>0.1547489615348349</v>
       </c>
       <c r="F3">
-        <v>0.1316322361650767</v>
+        <v>0.322012846358006</v>
       </c>
       <c r="G3">
-        <v>0.154617394023208</v>
+        <v>0.3772563185819376</v>
       </c>
       <c r="H3">
-        <v>0.154617394023208</v>
+        <v>0.4538156899141975</v>
       </c>
       <c r="I3">
-        <v>0.2884913884215745</v>
+        <v>0.4812955086284849</v>
       </c>
       <c r="J3">
-        <v>0.2884913884215745</v>
+        <v>0.4812955086284849</v>
       </c>
       <c r="K3">
-        <v>0.2884913884215745</v>
+        <v>0.4987411015329969</v>
       </c>
       <c r="L3">
-        <v>0.2884913884215745</v>
+        <v>0.6260168681450649</v>
       </c>
       <c r="M3">
-        <v>0.671947618443147</v>
+        <v>0.687950065195035</v>
       </c>
       <c r="N3">
-        <v>0.7049668936946946</v>
+        <v>0.7483966647278705</v>
       </c>
       <c r="O3">
-        <v>0.7049668936946946</v>
+        <v>0.7608362239989552</v>
       </c>
       <c r="P3">
-        <v>0.7049668936946946</v>
+        <v>0.7804274939165677</v>
       </c>
       <c r="Q3">
-        <v>0.7331490403727093</v>
+        <v>0.7804274939165677</v>
       </c>
       <c r="R3">
-        <v>0.7331490403727093</v>
+        <v>0.7804274939165677</v>
       </c>
       <c r="S3">
-        <v>0.7331490403727093</v>
+        <v>0.7804274939165677</v>
       </c>
       <c r="T3">
-        <v>0.7791264936061343</v>
+        <v>0.7968786047909833</v>
       </c>
       <c r="U3">
-        <v>0.7845353884051521</v>
+        <v>0.7968786047909833</v>
       </c>
       <c r="V3">
-        <v>0.7845353884051521</v>
+        <v>0.7968786047909833</v>
       </c>
       <c r="W3">
-        <v>0.8728213419312186</v>
+        <v>0.8509907361631658</v>
       </c>
       <c r="X3">
-        <v>0.8820597047681601</v>
+        <v>0.8509907361631658</v>
       </c>
       <c r="Y3">
-        <v>0.8820597047681601</v>
+        <v>0.8509907361631658</v>
       </c>
       <c r="Z3">
-        <v>0.8820597047681601</v>
+        <v>0.8509907361631658</v>
       </c>
       <c r="AA3">
-        <v>0.8897819168249772</v>
+        <v>0.8730503765648779</v>
       </c>
       <c r="AB3">
-        <v>0.905765447380221</v>
+        <v>0.9558361616619852</v>
       </c>
       <c r="AC3">
-        <v>0.9447021963116858</v>
+        <v>0.9674995685887274</v>
       </c>
       <c r="AD3">
-        <v>0.9896758436340364</v>
+        <v>0.9784349561438146</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.9831064272061427</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.9831064272061427</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9831064272061427</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.9831064272061427</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9831064272061427</v>
       </c>
       <c r="AJ3">
         <v>1</v>
       </c>
-      <c r="AK3">
-        <v>1</v>
-      </c>
-      <c r="AL3">
-        <v>1</v>
-      </c>
-      <c r="AM3">
-        <v>1</v>
-      </c>
-      <c r="AN3">
-        <v>1</v>
-      </c>
-      <c r="AO3">
-        <v>1</v>
-      </c>
-      <c r="AP3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42">
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1750,251 +1570,215 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2045343962474359</v>
+        <v>0.1878381386931893</v>
       </c>
       <c r="F4">
-        <v>0.2045343962474359</v>
+        <v>0.1878381386931893</v>
       </c>
       <c r="G4">
-        <v>0.423399598214065</v>
+        <v>0.319776156191471</v>
       </c>
       <c r="H4">
-        <v>0.423399598214065</v>
+        <v>0.3592325613015353</v>
       </c>
       <c r="I4">
-        <v>0.4914371819842996</v>
+        <v>0.4393963905589458</v>
       </c>
       <c r="J4">
-        <v>0.4914371819842996</v>
+        <v>0.4393963905589458</v>
       </c>
       <c r="K4">
-        <v>0.5182884579897438</v>
+        <v>0.4393963905589458</v>
       </c>
       <c r="L4">
-        <v>0.5192325328271701</v>
+        <v>0.5227353885321973</v>
       </c>
       <c r="M4">
-        <v>0.6438120276097509</v>
+        <v>0.6446628034674997</v>
       </c>
       <c r="N4">
-        <v>0.7733334292539488</v>
+        <v>0.7039233490554091</v>
       </c>
       <c r="O4">
-        <v>0.7733334292539488</v>
+        <v>0.7836721764741892</v>
       </c>
       <c r="P4">
-        <v>0.7872416269986944</v>
+        <v>0.7836721764741892</v>
       </c>
       <c r="Q4">
-        <v>0.7872416269986944</v>
+        <v>0.78904872685162</v>
       </c>
       <c r="R4">
-        <v>0.8027276414430613</v>
+        <v>0.78904872685162</v>
       </c>
       <c r="S4">
-        <v>0.8027276414430613</v>
+        <v>0.78904872685162</v>
       </c>
       <c r="T4">
-        <v>0.8027276414430613</v>
+        <v>0.7922638035387989</v>
       </c>
       <c r="U4">
-        <v>0.8371986963979903</v>
+        <v>0.7944000313905123</v>
       </c>
       <c r="V4">
-        <v>0.8371986963979903</v>
+        <v>0.7944000313905123</v>
       </c>
       <c r="W4">
-        <v>0.8633228427228267</v>
+        <v>0.8371042970836622</v>
       </c>
       <c r="X4">
-        <v>0.9023315075859911</v>
+        <v>0.8803620975259289</v>
       </c>
       <c r="Y4">
-        <v>0.9023315075859911</v>
+        <v>0.8803620975259289</v>
       </c>
       <c r="Z4">
-        <v>0.9023315075859911</v>
+        <v>0.8803620975259289</v>
       </c>
       <c r="AA4">
-        <v>0.9023315075859911</v>
+        <v>0.8803620975259289</v>
       </c>
       <c r="AB4">
-        <v>0.9392916180722609</v>
+        <v>0.9408775000501164</v>
       </c>
       <c r="AC4">
-        <v>0.967231803212119</v>
+        <v>0.9754086036500328</v>
       </c>
       <c r="AD4">
-        <v>0.967231803212119</v>
+        <v>0.9754086036500328</v>
       </c>
       <c r="AE4">
-        <v>0.9951308910462066</v>
+        <v>0.9869490006296744</v>
       </c>
       <c r="AF4">
-        <v>0.9951308910462066</v>
+        <v>0.9869490006296744</v>
       </c>
       <c r="AG4">
-        <v>0.9955599482343378</v>
+        <v>0.9869490006296744</v>
       </c>
       <c r="AH4">
-        <v>0.9988030939073373</v>
+        <v>0.9869490006296744</v>
       </c>
       <c r="AI4">
-        <v>0.9988030939073373</v>
+        <v>0.9869490006296744</v>
       </c>
       <c r="AJ4">
         <v>1</v>
       </c>
-      <c r="AK4">
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.1220151380554086</v>
+      </c>
+      <c r="F5">
+        <v>0.1220151380554086</v>
+      </c>
+      <c r="G5">
+        <v>0.3123388709465143</v>
+      </c>
+      <c r="H5">
+        <v>0.3477621911588222</v>
+      </c>
+      <c r="I5">
+        <v>0.4576124990304752</v>
+      </c>
+      <c r="J5">
+        <v>0.4576124990304752</v>
+      </c>
+      <c r="K5">
+        <v>0.4576124990304752</v>
+      </c>
+      <c r="L5">
+        <v>0.4903791877019306</v>
+      </c>
+      <c r="M5">
+        <v>0.5616158452822172</v>
+      </c>
+      <c r="N5">
+        <v>0.6028974055834292</v>
+      </c>
+      <c r="O5">
+        <v>0.663501073746059</v>
+      </c>
+      <c r="P5">
+        <v>0.663501073746059</v>
+      </c>
+      <c r="Q5">
+        <v>0.6695601042802892</v>
+      </c>
+      <c r="R5">
+        <v>0.6825691378188536</v>
+      </c>
+      <c r="S5">
+        <v>0.6825691378188536</v>
+      </c>
+      <c r="T5">
+        <v>0.6906307820264757</v>
+      </c>
+      <c r="U5">
+        <v>0.7061929495213486</v>
+      </c>
+      <c r="V5">
+        <v>0.7061929495213486</v>
+      </c>
+      <c r="W5">
+        <v>0.7374731527282685</v>
+      </c>
+      <c r="X5">
+        <v>0.7811514438845014</v>
+      </c>
+      <c r="Y5">
+        <v>0.7811514438845014</v>
+      </c>
+      <c r="Z5">
+        <v>0.7811514438845014</v>
+      </c>
+      <c r="AA5">
+        <v>0.7861828908078149</v>
+      </c>
+      <c r="AB5">
+        <v>0.8685431015036142</v>
+      </c>
+      <c r="AC5">
+        <v>0.9481202421221397</v>
+      </c>
+      <c r="AD5">
+        <v>0.9565619306304343</v>
+      </c>
+      <c r="AE5">
+        <v>0.9914634960920099</v>
+      </c>
+      <c r="AF5">
+        <v>0.9914634960920099</v>
+      </c>
+      <c r="AG5">
+        <v>0.9914634960920099</v>
+      </c>
+      <c r="AH5">
+        <v>0.9914634960920099</v>
+      </c>
+      <c r="AI5">
+        <v>0.9914634960920099</v>
+      </c>
+      <c r="AJ5">
         <v>1</v>
       </c>
-      <c r="AL4">
-        <v>1</v>
-      </c>
-      <c r="AM4">
-        <v>1</v>
-      </c>
-      <c r="AN4">
-        <v>1</v>
-      </c>
-      <c r="AO4">
-        <v>1</v>
-      </c>
-      <c r="AP4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42">
-      <c r="A5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0.02571505670461532</v>
-      </c>
-      <c r="L5">
-        <v>0.09076936219547049</v>
-      </c>
-      <c r="M5">
-        <v>0.2831724605161399</v>
-      </c>
-      <c r="N5">
-        <v>0.2831724605161399</v>
-      </c>
-      <c r="O5">
-        <v>0.3094557281222015</v>
-      </c>
-      <c r="P5">
-        <v>0.3725764209401512</v>
-      </c>
-      <c r="Q5">
-        <v>0.3901812188130224</v>
-      </c>
-      <c r="R5">
-        <v>0.3901812188130224</v>
-      </c>
-      <c r="S5">
-        <v>0.6218783922261946</v>
-      </c>
-      <c r="T5">
-        <v>0.8484975796106307</v>
-      </c>
-      <c r="U5">
-        <v>0.8484975796106307</v>
-      </c>
-      <c r="V5">
-        <v>0.8484975796106307</v>
-      </c>
-      <c r="W5">
-        <v>0.8484975796106307</v>
-      </c>
-      <c r="X5">
-        <v>0.8638570285120259</v>
-      </c>
-      <c r="Y5">
-        <v>0.8638570285120259</v>
-      </c>
-      <c r="Z5">
-        <v>0.8638570285120259</v>
-      </c>
-      <c r="AA5">
-        <v>0.9060005950303169</v>
-      </c>
-      <c r="AB5">
-        <v>0.9060005950303169</v>
-      </c>
-      <c r="AC5">
-        <v>0.947953804268172</v>
-      </c>
-      <c r="AD5">
-        <v>0.9880528648044664</v>
-      </c>
-      <c r="AE5">
-        <v>0.9880528648044664</v>
-      </c>
-      <c r="AF5">
-        <v>0.9880528648044664</v>
-      </c>
-      <c r="AG5">
-        <v>0.9880528648044664</v>
-      </c>
-      <c r="AH5">
-        <v>0.9880528648044664</v>
-      </c>
-      <c r="AI5">
-        <v>0.9880528648044664</v>
-      </c>
-      <c r="AJ5">
-        <v>0.9880528648044664</v>
-      </c>
-      <c r="AK5">
-        <v>0.9926515831513396</v>
-      </c>
-      <c r="AL5">
-        <v>0.9926515831513396</v>
-      </c>
-      <c r="AM5">
-        <v>0.9926515831513396</v>
-      </c>
-      <c r="AN5">
-        <v>1</v>
-      </c>
-      <c r="AO5">
-        <v>1</v>
-      </c>
-      <c r="AP5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42">
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2003,120 +1787,102 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.001389926877148997</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1137284140620421</v>
+        <v>0.1521389997418707</v>
       </c>
       <c r="F6">
-        <v>0.2473513506169867</v>
+        <v>0.1582915347341873</v>
       </c>
       <c r="G6">
-        <v>0.2473513506169867</v>
+        <v>0.3138016047598622</v>
       </c>
       <c r="H6">
-        <v>0.3278662448612362</v>
+        <v>0.3268709603888239</v>
       </c>
       <c r="I6">
-        <v>0.3743943713967841</v>
+        <v>0.4626770837311736</v>
       </c>
       <c r="J6">
-        <v>0.4027647603347507</v>
+        <v>0.4626770837311736</v>
       </c>
       <c r="K6">
-        <v>0.4027647603347507</v>
+        <v>0.4626770837311736</v>
       </c>
       <c r="L6">
-        <v>0.497391327104963</v>
+        <v>0.5331304251874688</v>
       </c>
       <c r="M6">
-        <v>0.7512683860311038</v>
+        <v>0.6885385630115139</v>
       </c>
       <c r="N6">
-        <v>0.7512683860311038</v>
+        <v>0.7183090400646429</v>
       </c>
       <c r="O6">
-        <v>0.7560483266250864</v>
+        <v>0.7812233295305291</v>
       </c>
       <c r="P6">
-        <v>0.7560483266250864</v>
+        <v>0.7812233295305291</v>
       </c>
       <c r="Q6">
-        <v>0.7981423088243049</v>
+        <v>0.796236037491333</v>
       </c>
       <c r="R6">
-        <v>0.7981423088243049</v>
+        <v>0.796236037491333</v>
       </c>
       <c r="S6">
-        <v>0.7981423088243049</v>
+        <v>0.796236037491333</v>
       </c>
       <c r="T6">
-        <v>0.8286443769692186</v>
+        <v>0.796236037491333</v>
       </c>
       <c r="U6">
-        <v>0.8286443769692186</v>
+        <v>0.796236037491333</v>
       </c>
       <c r="V6">
-        <v>0.8638768133664722</v>
+        <v>0.796236037491333</v>
       </c>
       <c r="W6">
-        <v>0.9180015935200972</v>
+        <v>0.8383066003927795</v>
       </c>
       <c r="X6">
-        <v>0.9180015935200972</v>
+        <v>0.856717703220824</v>
       </c>
       <c r="Y6">
-        <v>0.9252361533290023</v>
+        <v>0.856717703220824</v>
       </c>
       <c r="Z6">
-        <v>0.9252361533290023</v>
+        <v>0.856717703220824</v>
       </c>
       <c r="AA6">
-        <v>0.9474940948412597</v>
+        <v>0.8632241178945848</v>
       </c>
       <c r="AB6">
-        <v>0.9498709960582513</v>
+        <v>0.9062757968393574</v>
       </c>
       <c r="AC6">
-        <v>0.9767211077493535</v>
+        <v>0.9468564550889803</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9546777315299083</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9911444814560293</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9911444814560293</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9911444814560293</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9911444814560293</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9911444814560293</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
-      </c>
-      <c r="AK6">
-        <v>1</v>
-      </c>
-      <c r="AL6">
-        <v>1</v>
-      </c>
-      <c r="AM6">
-        <v>1</v>
-      </c>
-      <c r="AN6">
-        <v>1</v>
-      </c>
-      <c r="AO6">
-        <v>1</v>
-      </c>
-      <c r="AP6">
         <v>1</v>
       </c>
     </row>
@@ -2135,66 +1901,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0245084867605008</v>
       </c>
       <c r="F2">
-        <v>0.5431105480410863</v>
+        <v>0.6368039469386453</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -2203,21 +1969,21 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -2226,16 +1992,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.671947618443147</v>
+        <v>0.6260168681450649</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -2244,21 +2010,21 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -2267,16 +2033,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5182884579897438</v>
+        <v>0.5227353885321973</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -2285,39 +2051,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6218783922261946</v>
+        <v>0.5616158452822172</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -2326,21 +2092,21 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -2349,16 +2115,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7512683860311038</v>
+        <v>0.5331304251874688</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -2367,16 +2133,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2394,66 +2160,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0245084867605008</v>
       </c>
       <c r="F2">
-        <v>0.73040241197601</v>
+        <v>0.7100094783121637</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -2462,21 +2228,21 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.7</v>
@@ -2491,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7049668936946946</v>
+        <v>0.7483966647278705</v>
       </c>
       <c r="G3">
         <v>11</v>
@@ -2503,21 +2269,21 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -2532,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7733334292539488</v>
+        <v>0.7039233490554091</v>
       </c>
       <c r="G4">
         <v>11</v>
@@ -2544,39 +2310,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8484975796106307</v>
+        <v>0.7061929495213486</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -2585,21 +2351,21 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -2608,16 +2374,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7512683860311038</v>
+        <v>0.7183090400646429</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -2626,16 +2392,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2653,66 +2419,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0245084867605008</v>
       </c>
       <c r="F2">
-        <v>0.8158912430736773</v>
+        <v>0.8321844620068009</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -2721,21 +2487,21 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -2750,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8728213419312186</v>
+        <v>0.8509907361631658</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -2762,21 +2528,21 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -2785,16 +2551,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8027276414430613</v>
+        <v>0.8371042970836622</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -2803,39 +2569,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8484975796106307</v>
+        <v>0.8685431015036142</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -2844,21 +2610,21 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -2867,16 +2633,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8286443769692186</v>
+        <v>0.8383066003927795</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -2885,16 +2651,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2912,66 +2678,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0245084867605008</v>
       </c>
       <c r="F2">
-        <v>0.904095484347118</v>
+        <v>0.9255971542193681</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -2980,21 +2746,21 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -3009,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.905765447380221</v>
+        <v>0.9558361616619852</v>
       </c>
       <c r="G3">
         <v>25</v>
@@ -3021,21 +2787,21 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -3044,16 +2810,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9023315075859911</v>
+        <v>0.9408775000501164</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -3062,39 +2828,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D5">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.9481202421221397</v>
+      </c>
+      <c r="G5">
         <v>26</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9060005950303169</v>
-      </c>
-      <c r="G5">
-        <v>17</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -3103,21 +2869,21 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.9</v>
@@ -3126,16 +2892,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9180015935200972</v>
+        <v>0.9062757968393574</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -3144,16 +2910,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
